--- a/diary/2019-10-14(L).xlsx
+++ b/diary/2019-10-14(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>P</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>堅果 50g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>白飯 220g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>96.699999999999989</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>13.6</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>13.6</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>8.9499999999999993</v>
@@ -699,9 +699,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15.6</v>
+      </c>
       <c r="E11" s="1">
         <f>B11*4+C11*4+D11*9</f>
-        <v>0</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,7 +742,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>6.82</v>
@@ -761,19 +773,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>158.16999999999996</v>
+        <v>174.26999999999995</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>169.7</v>
+        <v>194.2</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>77.13</v>
+        <v>92.72999999999999</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E2:E17)</f>
-        <v>2005.65</v>
+        <v>2308.4499999999998</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F3:F17)</f>
